--- a/artfynd/A 35741-2022.xlsx
+++ b/artfynd/A 35741-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7001609</v>
+        <v>7001604</v>
       </c>
       <c r="B2" t="n">
-        <v>89545</v>
+        <v>89633</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>65</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>428422.5242969164</v>
+        <v>427974.2482777644</v>
       </c>
       <c r="R2" t="n">
-        <v>6967694.815016679</v>
+        <v>6967439.028812535</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7001604</v>
+        <v>110074287</v>
       </c>
       <c r="B3" t="n">
-        <v>89633</v>
+        <v>77258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor-Vävelsjön, Hjd</t>
+          <t>Mossatjärnen, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>427974.2482777644</v>
+        <v>428153.0117881988</v>
       </c>
       <c r="R3" t="n">
-        <v>6967439.028812535</v>
+        <v>6967344.589577237</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,26 +897,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7001610</v>
+        <v>110074123</v>
       </c>
       <c r="B4" t="n">
-        <v>89545</v>
+        <v>78072</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,38 +921,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1503</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stor-Vävelsjön, Hjd</t>
+          <t>Mossatjärnen, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>428463.9076659877</v>
+        <v>427909.0506540548</v>
       </c>
       <c r="R4" t="n">
-        <v>6967577.344036122</v>
+        <v>6967430.403485349</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +980,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +990,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1012,23 +1010,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7001607</v>
+        <v>7001609</v>
       </c>
       <c r="B5" t="n">
         <v>89545</v>
@@ -1068,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>428435.6845188387</v>
+        <v>428422.5242969164</v>
       </c>
       <c r="R5" t="n">
-        <v>6967710.527076403</v>
+        <v>6967694.815016679</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1144,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7001605</v>
+        <v>7001610</v>
       </c>
       <c r="B6" t="n">
-        <v>89633</v>
+        <v>89545</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>428265.2205634987</v>
+        <v>428463.9076659877</v>
       </c>
       <c r="R6" t="n">
-        <v>6967325.675639913</v>
+        <v>6967577.344036122</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1260,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7001608</v>
+        <v>7001607</v>
       </c>
       <c r="B7" t="n">
-        <v>90841</v>
+        <v>89545</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1266,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1294,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>428422.5242969164</v>
+        <v>428435.6845188387</v>
       </c>
       <c r="R7" t="n">
-        <v>6967694.815016679</v>
+        <v>6967710.527076403</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1376,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7001606</v>
+        <v>7001605</v>
       </c>
       <c r="B8" t="n">
-        <v>76909</v>
+        <v>89633</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6437</v>
+        <v>65</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>428264.8549688196</v>
+        <v>428265.2205634987</v>
       </c>
       <c r="R8" t="n">
-        <v>6967350.828126374</v>
+        <v>6967325.675639913</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110074287</v>
+        <v>7001608</v>
       </c>
       <c r="B9" t="n">
-        <v>77258</v>
+        <v>90841</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,35 +1502,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>2079</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Mossatjärnen, Hjd</t>
+          <t>Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>428153.0117881988</v>
+        <v>428422.5242969164</v>
       </c>
       <c r="R9" t="n">
-        <v>6967344.589577237</v>
+        <v>6967694.815016679</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1563,7 +1556,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1573,7 +1566,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1593,22 +1586,26 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110074371</v>
+        <v>7001606</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>76909</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,35 +1618,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Mossatjärnen, Hjd</t>
+          <t>Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>428271.2392802042</v>
+        <v>428264.8549688196</v>
       </c>
       <c r="R10" t="n">
-        <v>6967328.744247423</v>
+        <v>6967350.828126374</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1676,7 +1672,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1686,7 +1682,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1706,22 +1702,26 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110074693</v>
+        <v>110074371</v>
       </c>
       <c r="B11" t="n">
-        <v>77177</v>
+        <v>78098</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,21 +1734,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>428460.0843083364</v>
+        <v>428271.2392802042</v>
       </c>
       <c r="R11" t="n">
-        <v>6967485.998547925</v>
+        <v>6967328.744247423</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110074497</v>
+        <v>110074693</v>
       </c>
       <c r="B12" t="n">
-        <v>78072</v>
+        <v>77177</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1847,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>428350.3798339469</v>
+        <v>428460.0843083364</v>
       </c>
       <c r="R12" t="n">
-        <v>6967409.762082688</v>
+        <v>6967485.998547925</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110074502</v>
+        <v>110074497</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,21 +1960,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110074877</v>
+        <v>110074502</v>
       </c>
       <c r="B14" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>428472.3223664705</v>
+        <v>428350.3798339469</v>
       </c>
       <c r="R14" t="n">
-        <v>6967564.360638685</v>
+        <v>6967409.762082688</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110074123</v>
+        <v>110074877</v>
       </c>
       <c r="B15" t="n">
         <v>78072</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>427909.0506540548</v>
+        <v>428472.3223664705</v>
       </c>
       <c r="R15" t="n">
-        <v>6967430.403485349</v>
+        <v>6967564.360638685</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2620,6 +2620,835 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112435711</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>428423</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6967395</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112439263</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>428455</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6967575</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Gamla ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112439218</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>428439</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6967600</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112435836</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78726</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>428438</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6967379</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112435620</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>428423</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6967395</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112438686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90781</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6055</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spadskinn</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Stereopsis vitellina</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(S.Lundell) D.A.Reid</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>428467</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6967562</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112436511</v>
+      </c>
+      <c r="B25" t="n">
+        <v>77389</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>428502</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6967309</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112435800</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Mossatjärnen, Hjd</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>428438</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6967379</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Åsarne</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35741-2022.xlsx
+++ b/artfynd/A 35741-2022.xlsx
@@ -2622,10 +2622,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112435711</v>
+        <v>112435800</v>
       </c>
       <c r="B19" t="n">
-        <v>78732</v>
+        <v>78714</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2634,25 +2634,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>428423</v>
+        <v>428438</v>
       </c>
       <c r="R19" t="n">
-        <v>6967395</v>
+        <v>6967379</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112439263</v>
+        <v>112435711</v>
       </c>
       <c r="B20" t="n">
-        <v>56430</v>
+        <v>78746</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2737,25 +2737,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>428455</v>
+        <v>428423</v>
       </c>
       <c r="R20" t="n">
-        <v>6967575</v>
+        <v>6967395</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2802,11 +2802,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2833,10 +2828,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112439218</v>
+        <v>112435836</v>
       </c>
       <c r="B21" t="n">
-        <v>90843</v>
+        <v>78740</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2845,25 +2840,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2869,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>428439</v>
+        <v>428438</v>
       </c>
       <c r="R21" t="n">
-        <v>6967600</v>
+        <v>6967379</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2936,10 +2931,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112435836</v>
+        <v>112439263</v>
       </c>
       <c r="B22" t="n">
-        <v>78726</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2948,25 +2943,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2977,10 +2972,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>428438</v>
+        <v>428455</v>
       </c>
       <c r="R22" t="n">
-        <v>6967379</v>
+        <v>6967575</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3013,6 +3008,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3039,10 +3039,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112435620</v>
+        <v>112438686</v>
       </c>
       <c r="B23" t="n">
-        <v>78700</v>
+        <v>90795</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3051,25 +3051,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>6055</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>428423</v>
+        <v>428467</v>
       </c>
       <c r="R23" t="n">
-        <v>6967395</v>
+        <v>6967562</v>
       </c>
       <c r="S23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112438686</v>
+        <v>112439218</v>
       </c>
       <c r="B24" t="n">
-        <v>90781</v>
+        <v>90857</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3154,25 +3154,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6055</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>428467</v>
+        <v>428439</v>
       </c>
       <c r="R24" t="n">
-        <v>6967562</v>
+        <v>6967600</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112436511</v>
+        <v>112435620</v>
       </c>
       <c r="B25" t="n">
-        <v>77389</v>
+        <v>78714</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3261,21 +3261,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>428502</v>
+        <v>428423</v>
       </c>
       <c r="R25" t="n">
-        <v>6967309</v>
+        <v>6967395</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112435800</v>
+        <v>112436511</v>
       </c>
       <c r="B26" t="n">
-        <v>78700</v>
+        <v>77403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3364,21 +3364,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>428438</v>
+        <v>428502</v>
       </c>
       <c r="R26" t="n">
-        <v>6967379</v>
+        <v>6967309</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>

--- a/artfynd/A 35741-2022.xlsx
+++ b/artfynd/A 35741-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7001604</v>
+        <v>7001609</v>
       </c>
       <c r="B2" t="n">
-        <v>89633</v>
+        <v>89545</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>427974.2482777644</v>
+        <v>428422.5242969164</v>
       </c>
       <c r="R2" t="n">
-        <v>6967439.028812535</v>
+        <v>6967694.815016679</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110074287</v>
+        <v>7001604</v>
       </c>
       <c r="B3" t="n">
-        <v>77258</v>
+        <v>89633</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,39 +808,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Mossatjärnen, Hjd</t>
+          <t>Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>428153.0117881988</v>
+        <v>427974.2482777644</v>
       </c>
       <c r="R3" t="n">
-        <v>6967344.589577237</v>
+        <v>6967439.028812535</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -897,22 +896,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110074123</v>
+        <v>7001610</v>
       </c>
       <c r="B4" t="n">
-        <v>78072</v>
+        <v>89545</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,39 +924,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>1503</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Mossatjärnen, Hjd</t>
+          <t>Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>427909.0506540548</v>
+        <v>428463.9076659877</v>
       </c>
       <c r="R4" t="n">
-        <v>6967430.403485349</v>
+        <v>6967577.344036122</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -980,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -990,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1010,19 +1012,23 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7001609</v>
+        <v>7001607</v>
       </c>
       <c r="B5" t="n">
         <v>89545</v>
@@ -1062,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>428422.5242969164</v>
+        <v>428435.6845188387</v>
       </c>
       <c r="R5" t="n">
-        <v>6967694.815016679</v>
+        <v>6967710.527076403</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1138,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7001610</v>
+        <v>7001605</v>
       </c>
       <c r="B6" t="n">
-        <v>89545</v>
+        <v>89633</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1503</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>428463.9076659877</v>
+        <v>428265.2205634987</v>
       </c>
       <c r="R6" t="n">
-        <v>6967577.344036122</v>
+        <v>6967325.675639913</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1254,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7001607</v>
+        <v>7001608</v>
       </c>
       <c r="B7" t="n">
-        <v>89545</v>
+        <v>90841</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1294,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>428435.6845188387</v>
+        <v>428422.5242969164</v>
       </c>
       <c r="R7" t="n">
-        <v>6967710.527076403</v>
+        <v>6967694.815016679</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1370,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7001605</v>
+        <v>7001606</v>
       </c>
       <c r="B8" t="n">
-        <v>89633</v>
+        <v>76909</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>6437</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>428265.2205634987</v>
+        <v>428264.8549688196</v>
       </c>
       <c r="R8" t="n">
-        <v>6967325.675639913</v>
+        <v>6967350.828126374</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1486,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7001608</v>
+        <v>110074287</v>
       </c>
       <c r="B9" t="n">
-        <v>90841</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,34 +1508,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2079</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stor-Vävelsjön, Hjd</t>
+          <t>Mossatjärnen, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>428422.5242969164</v>
+        <v>428153.0117881988</v>
       </c>
       <c r="R9" t="n">
-        <v>6967694.815016679</v>
+        <v>6967344.589577237</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1556,7 +1563,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1566,7 +1573,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1586,26 +1593,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7001606</v>
+        <v>110074371</v>
       </c>
       <c r="B10" t="n">
-        <v>76909</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1618,34 +1621,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stor-Vävelsjön, Hjd</t>
+          <t>Mossatjärnen, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>428264.8549688196</v>
+        <v>428271.2392802042</v>
       </c>
       <c r="R10" t="n">
-        <v>6967350.828126374</v>
+        <v>6967328.744247423</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1682,7 +1686,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1702,26 +1706,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110074371</v>
+        <v>110074693</v>
       </c>
       <c r="B11" t="n">
-        <v>78098</v>
+        <v>77177</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,21 +1734,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>428271.2392802042</v>
+        <v>428460.0843083364</v>
       </c>
       <c r="R11" t="n">
-        <v>6967328.744247423</v>
+        <v>6967485.998547925</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110074693</v>
+        <v>110074497</v>
       </c>
       <c r="B12" t="n">
-        <v>77177</v>
+        <v>78072</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1847,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>229821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>428460.0843083364</v>
+        <v>428350.3798339469</v>
       </c>
       <c r="R12" t="n">
-        <v>6967485.998547925</v>
+        <v>6967409.762082688</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110074497</v>
+        <v>110074502</v>
       </c>
       <c r="B13" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,21 +1960,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110074502</v>
+        <v>110074877</v>
       </c>
       <c r="B14" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>428350.3798339469</v>
+        <v>428472.3223664705</v>
       </c>
       <c r="R14" t="n">
-        <v>6967409.762082688</v>
+        <v>6967564.360638685</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110074877</v>
+        <v>110074123</v>
       </c>
       <c r="B15" t="n">
         <v>78072</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>428472.3223664705</v>
+        <v>427909.0506540548</v>
       </c>
       <c r="R15" t="n">
-        <v>6967564.360638685</v>
+        <v>6967430.403485349</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112435800</v>
+        <v>112439263</v>
       </c>
       <c r="B19" t="n">
-        <v>78714</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>428438</v>
+        <v>428455</v>
       </c>
       <c r="R19" t="n">
-        <v>6967379</v>
+        <v>6967575</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2699,6 +2699,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2725,10 +2730,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112435711</v>
+        <v>112435800</v>
       </c>
       <c r="B20" t="n">
-        <v>78746</v>
+        <v>78714</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2737,25 +2742,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2766,10 +2771,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>428423</v>
+        <v>428438</v>
       </c>
       <c r="R20" t="n">
-        <v>6967395</v>
+        <v>6967379</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2828,10 +2833,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112435836</v>
+        <v>112438686</v>
       </c>
       <c r="B21" t="n">
-        <v>78740</v>
+        <v>90795</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2840,25 +2845,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6055</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2869,13 +2874,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>428438</v>
+        <v>428467</v>
       </c>
       <c r="R21" t="n">
-        <v>6967379</v>
+        <v>6967562</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2931,10 +2936,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112439263</v>
+        <v>112439218</v>
       </c>
       <c r="B22" t="n">
-        <v>56430</v>
+        <v>90857</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2947,21 +2952,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5448</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2972,10 +2977,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>428455</v>
+        <v>428439</v>
       </c>
       <c r="R22" t="n">
-        <v>6967575</v>
+        <v>6967600</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3008,11 +3013,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3039,10 +3039,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112438686</v>
+        <v>112435711</v>
       </c>
       <c r="B23" t="n">
-        <v>90795</v>
+        <v>78746</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3051,25 +3051,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6055</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>428467</v>
+        <v>428423</v>
       </c>
       <c r="R23" t="n">
-        <v>6967562</v>
+        <v>6967395</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112439218</v>
+        <v>112436511</v>
       </c>
       <c r="B24" t="n">
-        <v>90857</v>
+        <v>77403</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3158,21 +3158,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5448</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>428439</v>
+        <v>428502</v>
       </c>
       <c r="R24" t="n">
-        <v>6967600</v>
+        <v>6967309</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112435620</v>
+        <v>112435836</v>
       </c>
       <c r="B25" t="n">
-        <v>78714</v>
+        <v>78740</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3257,25 +3257,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>428423</v>
+        <v>428438</v>
       </c>
       <c r="R25" t="n">
-        <v>6967395</v>
+        <v>6967379</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112436511</v>
+        <v>112435620</v>
       </c>
       <c r="B26" t="n">
-        <v>77403</v>
+        <v>78714</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3364,21 +3364,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>428502</v>
+        <v>428423</v>
       </c>
       <c r="R26" t="n">
-        <v>6967309</v>
+        <v>6967395</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>

--- a/artfynd/A 35741-2022.xlsx
+++ b/artfynd/A 35741-2022.xlsx
@@ -2622,10 +2622,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112439263</v>
+        <v>112435800</v>
       </c>
       <c r="B19" t="n">
-        <v>56430</v>
+        <v>78714</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>428455</v>
+        <v>428438</v>
       </c>
       <c r="R19" t="n">
-        <v>6967575</v>
+        <v>6967379</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2699,11 +2699,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2730,10 +2725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112435800</v>
+        <v>112439263</v>
       </c>
       <c r="B20" t="n">
-        <v>78714</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2746,21 +2741,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2771,10 +2766,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>428438</v>
+        <v>428455</v>
       </c>
       <c r="R20" t="n">
-        <v>6967379</v>
+        <v>6967575</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2807,6 +2802,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Gamla ringhack på tall.</t>
         </is>
       </c>
       <c r="AD20" t="b">
